--- a/Terrassement.xlsx
+++ b/Terrassement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C8A814-B550-4AD3-BCE8-FCB209C146B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A1439-83CF-4ABE-955A-94722A3193D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,13 +104,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -133,12 +133,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B61076E7-1CD3-4524-A529-BCE728A87571}" name="Tableau1" displayName="Tableau1" ref="C4:E7" totalsRowCount="1" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
-  <autoFilter ref="C4:E6" xr:uid="{CE2B2464-77C5-4036-AFCA-52DB2CAEF166}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B61076E7-1CD3-4524-A529-BCE728A87571}" name="Tableau1" displayName="Tableau1" ref="C4:E12" totalsRowCount="1" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
+  <autoFilter ref="C4:E11" xr:uid="{CE2B2464-77C5-4036-AFCA-52DB2CAEF166}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F2E39963-46AD-4F7A-A260-72A06D6B5732}" name="Colonne1" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{84D9FE55-6FD3-4598-BFC5-D7B6D51778B6}" name="Jour" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{DA6A02B6-AD93-4431-B598-EC1E0F8982DC}" name="Nombre de voyage" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F2E39963-46AD-4F7A-A260-72A06D6B5732}" name="Colonne1" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{84D9FE55-6FD3-4598-BFC5-D7B6D51778B6}" name="Jour" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DA6A02B6-AD93-4431-B598-EC1E0F8982DC}" name="Nombre de voyage" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:E7"/>
+  <dimension ref="C4:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,13 +454,44 @@
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2">
+        <v>44823</v>
+      </c>
       <c r="E7" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <f>SUBTOTAL(109,Tableau1[Nombre de voyage])</f>
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Terrassement.xlsx
+++ b/Terrassement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A1439-83CF-4ABE-955A-94722A3193D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC27C7A0-037C-4CC8-9AE4-4CF4B10A37FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,8 +133,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B61076E7-1CD3-4524-A529-BCE728A87571}" name="Tableau1" displayName="Tableau1" ref="C4:E12" totalsRowCount="1" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
-  <autoFilter ref="C4:E11" xr:uid="{CE2B2464-77C5-4036-AFCA-52DB2CAEF166}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B61076E7-1CD3-4524-A529-BCE728A87571}" name="Tableau1" displayName="Tableau1" ref="C4:E13" totalsRowCount="1" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
+  <autoFilter ref="C4:E12" xr:uid="{CE2B2464-77C5-4036-AFCA-52DB2CAEF166}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F2E39963-46AD-4F7A-A260-72A06D6B5732}" name="Colonne1" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{84D9FE55-6FD3-4598-BFC5-D7B6D51778B6}" name="Jour" dataDxfId="4" totalsRowDxfId="1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:E12"/>
+  <dimension ref="C4:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,13 +465,21 @@
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44824</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44825</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
@@ -485,11 +493,16 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
         <f>SUBTOTAL(109,Tableau1[Nombre de voyage])</f>
         <v>98</v>
       </c>

--- a/Terrassement.xlsx
+++ b/Terrassement.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC27C7A0-037C-4CC8-9AE4-4CF4B10A37FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E754A3C-C3F6-420D-AD31-A265FF0E0FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="3030" windowWidth="15375" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Jour</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Be</t>
+  </si>
+  <si>
+    <t>Beton manquand  du premier attachement</t>
+  </si>
+  <si>
+    <t>Voile axe A</t>
+  </si>
+  <si>
+    <t>Voile axe C</t>
+  </si>
+  <si>
+    <t>Voile axe 4-4</t>
   </si>
 </sst>
 </file>
@@ -101,10 +116,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -136,9 +151,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B61076E7-1CD3-4524-A529-BCE728A87571}" name="Tableau1" displayName="Tableau1" ref="C4:E13" totalsRowCount="1" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
   <autoFilter ref="C4:E12" xr:uid="{CE2B2464-77C5-4036-AFCA-52DB2CAEF166}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F2E39963-46AD-4F7A-A260-72A06D6B5732}" name="Colonne1" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{84D9FE55-6FD3-4598-BFC5-D7B6D51778B6}" name="Jour" dataDxfId="4" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DA6A02B6-AD93-4431-B598-EC1E0F8982DC}" name="Nombre de voyage" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F2E39963-46AD-4F7A-A260-72A06D6B5732}" name="Colonne1" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{84D9FE55-6FD3-4598-BFC5-D7B6D51778B6}" name="Jour" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DA6A02B6-AD93-4431-B598-EC1E0F8982DC}" name="Nombre de voyage" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -407,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:E13"/>
+  <dimension ref="C3:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,9 +433,16 @@
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -431,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -441,8 +463,30 @@
       <c r="E5" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <f>13.05-0.3-0.3-2.15</f>
+        <v>10.299999999999999</v>
+      </c>
+      <c r="J5">
+        <f>0.3*0.3</f>
+        <v>0.09</v>
+      </c>
+      <c r="K5">
+        <f>I5*J5</f>
+        <v>0.92699999999999982</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <f>K5*L5</f>
+        <v>6.488999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>2</v>
       </c>
@@ -452,8 +496,30 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f>13.05-0.3-0.3-3</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J7" si="0">0.3*0.3</f>
+        <v>0.09</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K7" si="1">I6*J6</f>
+        <v>0.85049999999999992</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M7" si="2">K6*L6</f>
+        <v>3.4019999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -463,8 +529,29 @@
       <c r="E7" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>10.63</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>7.6536</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>4</v>
       </c>
@@ -472,8 +559,15 @@
         <v>44824</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f>SUM(M5:M7)</f>
+        <v>17.544599999999999</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -482,22 +576,22 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
